--- a/result/without_base/12/valence/s01_5.xlsx
+++ b/result/without_base/12/valence/s01_5.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.5300000011920929</v>
+        <v>0.3999999910593033</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -510,13 +510,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001</v>
+        <v>5e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5049999952316284</v>
+        <v>0.5850000083446503</v>
       </c>
       <c r="C2" t="n">
-        <v>5073.86767578125</v>
+        <v>41741.17578125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.513181824575771</v>
+        <v>0.544886361468922</v>
       </c>
       <c r="E2" t="n">
-        <v>5074.099165482955</v>
+        <v>41740.75106534091</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4799999892711639</v>
+        <v>0.5575000047683716</v>
       </c>
       <c r="C3" t="n">
-        <v>4972.7001953125</v>
+        <v>40981.466796875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5137500085613944</v>
+        <v>0.5894318277185614</v>
       </c>
       <c r="E3" t="n">
-        <v>4972.692027698864</v>
+        <v>40978.88068181818</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +606,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5275000035762787</v>
+        <v>0.5225000083446503</v>
       </c>
       <c r="C4" t="n">
-        <v>4872.802734375</v>
+        <v>40231.5234375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5334090942686255</v>
+        <v>0.5918181755326011</v>
       </c>
       <c r="E4" t="n">
-        <v>4872.898082386364</v>
+        <v>40226.96875</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +623,1308 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5300000011920929</v>
+        <v>0.4849999845027924</v>
       </c>
       <c r="C5" t="n">
-        <v>4774.8515625</v>
+        <v>39486.869140625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5509090911258351</v>
+        <v>0.6298863562670621</v>
       </c>
       <c r="E5" t="n">
-        <v>4774.917569247159</v>
+        <v>39482.00319602273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4724999964237213</v>
+      </c>
+      <c r="C6" t="n">
+        <v>38754.470703125</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6436363675377585</v>
+      </c>
+      <c r="E6" t="n">
+        <v>38747.08345170454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4074999988079071</v>
+      </c>
+      <c r="C7" t="n">
+        <v>38030.92578125</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6432954452254556</v>
+      </c>
+      <c r="E7" t="n">
+        <v>38024.07741477273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4350000023841858</v>
+      </c>
+      <c r="C8" t="n">
+        <v>37317.94140625</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6821590987118807</v>
+      </c>
+      <c r="E8" t="n">
+        <v>37310.76278409091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4799999892711639</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36616.216796875</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.705568178133531</v>
+      </c>
+      <c r="E9" t="n">
+        <v>36609.53053977273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4224999994039536</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35926.390625</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7277272831309926</v>
+      </c>
+      <c r="E10" t="n">
+        <v>35919.39985795454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4799999892711639</v>
+      </c>
+      <c r="C11" t="n">
+        <v>35247.587890625</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7281818281520497</v>
+      </c>
+      <c r="E11" t="n">
+        <v>35241.07741477273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="C12" t="n">
+        <v>34580.87890625</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7478409192778848</v>
+      </c>
+      <c r="E12" t="n">
+        <v>34573.58132102273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4275000095367432</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33924.103515625</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7612500028176741</v>
+      </c>
+      <c r="E13" t="n">
+        <v>33917.61576704546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4449999928474426</v>
+      </c>
+      <c r="C14" t="n">
+        <v>33280.533203125</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7686363675377585</v>
+      </c>
+      <c r="E14" t="n">
+        <v>33273.09410511364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4425000101327896</v>
+      </c>
+      <c r="C15" t="n">
+        <v>32646.2568359375</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7747727307406339</v>
+      </c>
+      <c r="E15" t="n">
+        <v>32639.23082386364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4525000005960464</v>
+      </c>
+      <c r="C16" t="n">
+        <v>32022.9921875</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.781590916893699</v>
+      </c>
+      <c r="E16" t="n">
+        <v>32016.357421875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4525000005960464</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31411.1484375</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8107954534617338</v>
+      </c>
+      <c r="E17" t="n">
+        <v>31404.11612215909</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.4150000065565109</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30810.466796875</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7763636383143339</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30803.24556107954</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4249999970197678</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30219.119140625</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8037499947981401</v>
+      </c>
+      <c r="E19" t="n">
+        <v>30212.24786931818</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4699999988079071</v>
+      </c>
+      <c r="C20" t="n">
+        <v>29637.8671875</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.818068184635856</v>
+      </c>
+      <c r="E20" t="n">
+        <v>29631.69247159091</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4099999964237213</v>
+      </c>
+      <c r="C21" t="n">
+        <v>29069.033203125</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7768181724981829</v>
+      </c>
+      <c r="E21" t="n">
+        <v>29062.24840198864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4000000059604645</v>
+      </c>
+      <c r="C22" t="n">
+        <v>28508.345703125</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8217045393857089</v>
+      </c>
+      <c r="E22" t="n">
+        <v>28501.80717329546</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4800000041723251</v>
+      </c>
+      <c r="C23" t="n">
+        <v>27957.94140625</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8593181750991128</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27951.67666903409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.489999994635582</v>
+      </c>
+      <c r="C24" t="n">
+        <v>27417.6728515625</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8503409082239325</v>
+      </c>
+      <c r="E24" t="n">
+        <v>27411.70099431818</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4800000041723251</v>
+      </c>
+      <c r="C25" t="n">
+        <v>26886.9033203125</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8601136370138689</v>
+      </c>
+      <c r="E25" t="n">
+        <v>26881.23064630682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4825000017881393</v>
+      </c>
+      <c r="C26" t="n">
+        <v>26365.9228515625</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8720454465259205</v>
+      </c>
+      <c r="E26" t="n">
+        <v>26360.19229403409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4525000005960464</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25854.0126953125</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8751136335459623</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25848.71324573864</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4749999940395355</v>
+      </c>
+      <c r="C28" t="n">
+        <v>25351.9765625</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8865909088741649</v>
+      </c>
+      <c r="E28" t="n">
+        <v>25346.32723721591</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.4974999874830246</v>
+      </c>
+      <c r="C29" t="n">
+        <v>24858.7392578125</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8792045333168723</v>
+      </c>
+      <c r="E29" t="n">
+        <v>24853.09197443182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.4649999886751175</v>
+      </c>
+      <c r="C30" t="n">
+        <v>24374.3935546875</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8867045424201272</v>
+      </c>
+      <c r="E30" t="n">
+        <v>24368.84215198864</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.4625000059604645</v>
+      </c>
+      <c r="C31" t="n">
+        <v>23898.7041015625</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.889431817965074</v>
+      </c>
+      <c r="E31" t="n">
+        <v>23893.26207386364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4525000005960464</v>
+      </c>
+      <c r="C32" t="n">
+        <v>23431.6396484375</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8782954486933622</v>
+      </c>
+      <c r="E32" t="n">
+        <v>23426.46502130682</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.4200000017881393</v>
+      </c>
+      <c r="C33" t="n">
+        <v>22973.1630859375</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9034090909090909</v>
+      </c>
+      <c r="E33" t="n">
+        <v>22967.87943892046</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.4749999940395355</v>
+      </c>
+      <c r="C34" t="n">
+        <v>22523.2255859375</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.910681816664609</v>
+      </c>
+      <c r="E34" t="n">
+        <v>22517.82439630682</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.4525000005960464</v>
+      </c>
+      <c r="C35" t="n">
+        <v>22081.40625</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9006818207827482</v>
+      </c>
+      <c r="E35" t="n">
+        <v>22076.02734375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4624999910593033</v>
+      </c>
+      <c r="C36" t="n">
+        <v>21647.45703125</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9086363586512479</v>
+      </c>
+      <c r="E36" t="n">
+        <v>21642.27663352273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4624999910593033</v>
+      </c>
+      <c r="C37" t="n">
+        <v>21221.37890625</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9229545430703596</v>
+      </c>
+      <c r="E37" t="n">
+        <v>21216.38370028409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.3624999970197678</v>
+      </c>
+      <c r="C38" t="n">
+        <v>20804.0283203125</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8924999887293036</v>
+      </c>
+      <c r="E38" t="n">
+        <v>20798.47780539773</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.3949999958276749</v>
+      </c>
+      <c r="C39" t="n">
+        <v>20393.0849609375</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9111363671042703</v>
+      </c>
+      <c r="E39" t="n">
+        <v>20388.07830255682</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4724999964237213</v>
+      </c>
+      <c r="C40" t="n">
+        <v>19989.7392578125</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9309090917760675</v>
+      </c>
+      <c r="E40" t="n">
+        <v>19985.12322443182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4624999910593033</v>
+      </c>
+      <c r="C41" t="n">
+        <v>19594.3544921875</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9284090941602533</v>
+      </c>
+      <c r="E41" t="n">
+        <v>19589.72354403409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4525000005960464</v>
+      </c>
+      <c r="C42" t="n">
+        <v>19206.4150390625</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9329545497894287</v>
+      </c>
+      <c r="E42" t="n">
+        <v>19201.59197443182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.3974999934434891</v>
+      </c>
+      <c r="C43" t="n">
+        <v>18825.8115234375</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.8885227333415638</v>
+      </c>
+      <c r="E43" t="n">
+        <v>18820.75443892046</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.447500005364418</v>
+      </c>
+      <c r="C44" t="n">
+        <v>18451.2802734375</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9252272681756453</v>
+      </c>
+      <c r="E44" t="n">
+        <v>18446.685546875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.4025000035762787</v>
+      </c>
+      <c r="C45" t="n">
+        <v>18084.29296875</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9113636341961947</v>
+      </c>
+      <c r="E45" t="n">
+        <v>18079.71271306818</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.4649999886751175</v>
+      </c>
+      <c r="C46" t="n">
+        <v>17723.912109375</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9201136339794506</v>
+      </c>
+      <c r="E46" t="n">
+        <v>17719.44744318182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="C47" t="n">
+        <v>17370.1611328125</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9340909069234674</v>
+      </c>
+      <c r="E47" t="n">
+        <v>17365.82794744318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.4025000035762787</v>
+      </c>
+      <c r="C48" t="n">
+        <v>17023.0517578125</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.9409090876579285</v>
+      </c>
+      <c r="E48" t="n">
+        <v>17018.80060369318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.4650000035762787</v>
+      </c>
+      <c r="C49" t="n">
+        <v>16682.0498046875</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.9357954534617338</v>
+      </c>
+      <c r="E49" t="n">
+        <v>16678.28071732954</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5250000059604645</v>
+      </c>
+      <c r="C50" t="n">
+        <v>16347.86767578125</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9152272777123884</v>
+      </c>
+      <c r="E50" t="n">
+        <v>16344.12091619318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.4825000017881393</v>
+      </c>
+      <c r="C51" t="n">
+        <v>16020.033203125</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9368181824684143</v>
+      </c>
+      <c r="E51" t="n">
+        <v>16016.02201704545</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.4599999934434891</v>
+      </c>
+      <c r="C52" t="n">
+        <v>15697.8291015625</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.9448863593014803</v>
+      </c>
+      <c r="E52" t="n">
+        <v>15694.0966796875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="C53" t="n">
+        <v>15382.046875</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.9342045458880338</v>
+      </c>
+      <c r="E53" t="n">
+        <v>15378.21280184659</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.4350000023841858</v>
+      </c>
+      <c r="C54" t="n">
+        <v>15071.94775390625</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.9407954595305703</v>
+      </c>
+      <c r="E54" t="n">
+        <v>15068.17462713068</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.4675000011920929</v>
+      </c>
+      <c r="C55" t="n">
+        <v>14767.26611328125</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.9317045428536155</v>
+      </c>
+      <c r="E55" t="n">
+        <v>14763.97576349432</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.4624999910593033</v>
+      </c>
+      <c r="C56" t="n">
+        <v>14468.86865234375</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.945568176833066</v>
+      </c>
+      <c r="E56" t="n">
+        <v>14465.41725852273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.4124999940395355</v>
+      </c>
+      <c r="C57" t="n">
+        <v>14175.97119140625</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.941136360168457</v>
+      </c>
+      <c r="E57" t="n">
+        <v>14172.46803977273</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.4224999994039536</v>
+      </c>
+      <c r="C58" t="n">
+        <v>13888.6669921875</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.9397727251052856</v>
+      </c>
+      <c r="E58" t="n">
+        <v>13885.00834517045</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.4574999958276749</v>
+      </c>
+      <c r="C59" t="n">
+        <v>13606.3056640625</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.9412499991330233</v>
+      </c>
+      <c r="E59" t="n">
+        <v>13602.93785511364</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.4925000071525574</v>
+      </c>
+      <c r="C60" t="n">
+        <v>13329.38720703125</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.9432954517277804</v>
+      </c>
+      <c r="E60" t="n">
+        <v>13326.16495028409</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5024999976158142</v>
+      </c>
+      <c r="C61" t="n">
+        <v>13057.93896484375</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.9510227225043557</v>
+      </c>
+      <c r="E61" t="n">
+        <v>13054.56418678977</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.4525000005960464</v>
+      </c>
+      <c r="C62" t="n">
+        <v>12791.43603515625</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.954318182034926</v>
+      </c>
+      <c r="E62" t="n">
+        <v>12788.09099786932</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.4175000041723251</v>
+      </c>
+      <c r="C63" t="n">
+        <v>12530.048828125</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.9357954534617338</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12526.69779829545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.4525000005960464</v>
+      </c>
+      <c r="C64" t="n">
+        <v>12273.3515625</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.929431828585538</v>
+      </c>
+      <c r="E64" t="n">
+        <v>12270.22398792614</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.4200000017881393</v>
+      </c>
+      <c r="C65" t="n">
+        <v>12021.74951171875</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.9059090885249051</v>
+      </c>
+      <c r="E65" t="n">
+        <v>12018.63094815341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4500000029802322</v>
+      </c>
+      <c r="C66" t="n">
+        <v>11774.6591796875</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.9331818168813532</v>
+      </c>
+      <c r="E66" t="n">
+        <v>11771.66415127841</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.4675000011920929</v>
+      </c>
+      <c r="C67" t="n">
+        <v>11532.21533203125</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.9297727346420288</v>
+      </c>
+      <c r="E67" t="n">
+        <v>11529.44247159091</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.4699999988079071</v>
+      </c>
+      <c r="C68" t="n">
+        <v>11294.48876953125</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.9532954638654535</v>
+      </c>
+      <c r="E68" t="n">
+        <v>11291.75639204545</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.4874999821186066</v>
+      </c>
+      <c r="C69" t="n">
+        <v>11061.43310546875</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.9330681779167869</v>
+      </c>
+      <c r="E69" t="n">
+        <v>11058.68696732955</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.4425000101327896</v>
+      </c>
+      <c r="C70" t="n">
+        <v>10832.73681640625</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.9273863651535728</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10830.04643110795</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.3975000083446503</v>
+      </c>
+      <c r="C71" t="n">
+        <v>10608.76611328125</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.9070454619147561</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10605.75426136364</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.3825000077486038</v>
+      </c>
+      <c r="C72" t="n">
+        <v>10388.3291015625</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.9243181835521351</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10385.63414417614</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.4450000077486038</v>
+      </c>
+      <c r="C73" t="n">
+        <v>10172.34033203125</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.9210227294401689</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10169.80743963068</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.427499994635582</v>
+      </c>
+      <c r="C74" t="n">
+        <v>9960.52685546875</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.9465909112583507</v>
+      </c>
+      <c r="E74" t="n">
+        <v>9957.98526278409</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.4525000005960464</v>
+      </c>
+      <c r="C75" t="n">
+        <v>9752.85791015625</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.8945454521612688</v>
+      </c>
+      <c r="E75" t="n">
+        <v>9750.401899857954</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.4550000131130219</v>
+      </c>
+      <c r="C76" t="n">
+        <v>9548.89990234375</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="E76" t="n">
+        <v>9546.66122159091</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.4849999994039536</v>
+      </c>
+      <c r="C77" t="n">
+        <v>9349.05322265625</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9096590930765326</v>
+      </c>
+      <c r="E77" t="n">
+        <v>9346.86141690341</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.4649999886751175</v>
+      </c>
+      <c r="C78" t="n">
+        <v>9153.17626953125</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.9251136346296831</v>
+      </c>
+      <c r="E78" t="n">
+        <v>9150.892578125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.4074999988079071</v>
+      </c>
+      <c r="C79" t="n">
+        <v>8961.25341796875</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.901022732257843</v>
+      </c>
+      <c r="E79" t="n">
+        <v>8958.782492897728</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.4450000077486038</v>
+      </c>
+      <c r="C80" t="n">
+        <v>8772.755859375</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.919431821866469</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8770.285333806818</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.3999999910593033</v>
+      </c>
+      <c r="C81" t="n">
+        <v>8587.69287109375</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.9240909002043984</v>
+      </c>
+      <c r="E81" t="n">
+        <v>8585.422496448864</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007575757575757576</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -681,29 +1973,29 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.03787878787878788</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.03787878787878788</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C5" t="n">
         <v>0.04545454545454546</v>
@@ -711,10 +2003,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C6" t="n">
         <v>0.04545454545454546</v>
@@ -722,10 +2014,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C7" t="n">
         <v>0.05303030303030303</v>
@@ -733,10 +2025,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.04629629629629629</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C8" t="n">
         <v>0.05303030303030303</v>
@@ -744,76 +2036,76 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.04629629629629629</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.07575757575757576</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.07575757575757576</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07575757575757576</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.06481481481481481</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07575757575757576</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.06481481481481481</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1060606060606061</v>
+        <v>0.1136363636363636</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1060606060606061</v>
+        <v>0.1136363636363636</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C15" t="n">
         <v>0.1287878787878788</v>
@@ -821,10 +2113,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C16" t="n">
         <v>0.1287878787878788</v>
@@ -832,10 +2124,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C17" t="n">
         <v>0.1363636363636364</v>
@@ -843,10 +2135,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1203703703703704</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C18" t="n">
         <v>0.1363636363636364</v>
@@ -854,10 +2146,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1203703703703704</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C19" t="n">
         <v>0.143939393939394</v>
@@ -865,10 +2157,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1574074074074074</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C20" t="n">
         <v>0.143939393939394</v>
@@ -876,10 +2168,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1574074074074074</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C21" t="n">
         <v>0.1515151515151515</v>
@@ -887,10 +2179,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1759259259259259</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C22" t="n">
         <v>0.1515151515151515</v>
@@ -898,761 +2190,761 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1759259259259259</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1590909090909091</v>
+        <v>0.1742424242424243</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.25</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1590909090909091</v>
+        <v>0.1742424242424243</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.25</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.1893939393939394</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.1893939393939394</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2196969696969697</v>
+        <v>0.196969696969697</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.212962962962963</v>
+        <v>0.287037037037037</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2196969696969697</v>
+        <v>0.196969696969697</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.212962962962963</v>
+        <v>0.287037037037037</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2348484848484849</v>
+        <v>0.2196969696969697</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2348484848484849</v>
+        <v>0.2196969696969697</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2272727272727273</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2407407407407407</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2272727272727273</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2407407407407407</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2878787878787879</v>
+        <v>0.2348484848484849</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2878787878787879</v>
+        <v>0.2348484848484849</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2954545454545455</v>
+        <v>0.2803030303030303</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.2685185185185185</v>
+        <v>0.3425925925925926</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2954545454545455</v>
+        <v>0.2803030303030303</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.2685185185185185</v>
+        <v>0.3425925925925926</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3181818181818182</v>
+        <v>0.303030303030303</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.287037037037037</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3181818181818182</v>
+        <v>0.303030303030303</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.287037037037037</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3560606060606061</v>
+        <v>0.3181818181818182</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.3148148148148148</v>
+        <v>0.3981481481481481</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3560606060606061</v>
+        <v>0.3181818181818182</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.3148148148148148</v>
+        <v>0.3981481481481481</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3712121212121212</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.3240740740740741</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3712121212121212</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.3240740740740741</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3863636363636364</v>
+        <v>0.3409090909090909</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3518518518518519</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3863636363636364</v>
+        <v>0.3409090909090909</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3518518518518519</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4015151515151515</v>
+        <v>0.3484848484848485</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4015151515151515</v>
+        <v>0.3484848484848485</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3796296296296297</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3796296296296297</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4393939393939394</v>
+        <v>0.3939393939393939</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4393939393939394</v>
+        <v>0.3939393939393939</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3981481481481481</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.3981481481481481</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4772727272727273</v>
+        <v>0.4242424242424243</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.4351851851851852</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4772727272727273</v>
+        <v>0.4242424242424243</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.4351851851851852</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5</v>
+        <v>0.4318181818181818</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5462962962962963</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5</v>
+        <v>0.4318181818181818</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5462962962962963</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5075757575757576</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.462962962962963</v>
+        <v>0.5648148148148148</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5075757575757576</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.462962962962963</v>
+        <v>0.5648148148148148</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5303030303030303</v>
+        <v>0.4696969696969697</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5303030303030303</v>
+        <v>0.4696969696969697</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5378787878787878</v>
+        <v>0.4848484848484849</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.5092592592592593</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5378787878787878</v>
+        <v>0.4848484848484849</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.5092592592592593</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.4924242424242424</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.4924242424242424</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5606060606060606</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6018518518518519</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5606060606060606</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6018518518518519</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6136363636363636</v>
+        <v>0.5151515151515151</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.5740740740740741</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6136363636363636</v>
+        <v>0.5151515151515151</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5740740740740741</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6212121212121212</v>
+        <v>0.5303030303030303</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6203703703703703</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6212121212121212</v>
+        <v>0.5303030303030303</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6203703703703703</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5378787878787878</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.6018518518518519</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5378787878787878</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.6018518518518519</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6439393939393939</v>
+        <v>0.5681818181818182</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.6574074074074074</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6439393939393939</v>
+        <v>0.5681818181818182</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.6574074074074074</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.6296296296296297</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.6296296296296297</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C77" t="n">
-        <v>0.696969696969697</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C78" t="n">
-        <v>0.696969696969697</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.6515151515151515</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.7129629629629629</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.6515151515151515</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.7129629629629629</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7121212121212122</v>
+        <v>0.6590909090909091</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.7314814814814815</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7121212121212122</v>
+        <v>0.6590909090909091</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.7314814814814815</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7196969696969697</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7196969696969697</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7651515151515151</v>
+        <v>0.6742424242424242</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.7314814814814815</v>
+        <v>0.75</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7651515151515151</v>
+        <v>0.6742424242424242</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.7314814814814815</v>
+        <v>0.75</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7954545454545454</v>
+        <v>0.7045454545454546</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7954545454545454</v>
+        <v>0.7045454545454546</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C89" t="n">
-        <v>0.803030303030303</v>
+        <v>0.7121212121212122</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.7592592592592593</v>
+        <v>0.7870370370370371</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C90" t="n">
-        <v>0.803030303030303</v>
+        <v>0.7121212121212122</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.7592592592592593</v>
+        <v>0.7870370370370371</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8106060606060606</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1660,10 +2952,10 @@
         <v>0.7962962962962963</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8106060606060606</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1671,10 +2963,10 @@
         <v>0.7962962962962963</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.7348484848484849</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1682,10 +2974,10 @@
         <v>0.8240740740740741</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.7348484848484849</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1693,10 +2985,10 @@
         <v>0.8240740740740741</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.7878787878787878</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1704,10 +2996,10 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.7878787878787878</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1715,163 +3007,251 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.8425925925925926</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.8425925925925926</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.8257575757575758</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.8257575757575758</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9015151515151515</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9015151515151515</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8409090909090909</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8409090909090909</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8560606060606061</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.8796296296296297</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8560606060606061</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.8796296296296297</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.8636363636363636</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.9907407407407407</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.8636363636363636</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.9907407407407407</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.8863636363636364</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5255331088664421</v>
+        <v>0.4461279461279462</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.8863636363636364</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.4461279461279462</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="n">
+        <v>0.9259259259259259</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.4461279461279462</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="n">
+        <v>0.9259259259259259</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.4461279461279462</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.946969696969697</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="n">
+        <v>0.9629629629629629</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.4461279461279462</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.946969696969697</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="n">
+        <v>0.9629629629629629</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.4461279461279462</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.9621212121212122</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="n">
+        <v>0.9814814814814815</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.4461279461279462</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9621212121212122</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="n">
+        <v>0.9814814814814815</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.4461279461279462</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9772727272727273</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="n">
         <v>1</v>
       </c>
-      <c r="B111" t="n">
-        <v>0.5255331088664421</v>
-      </c>
-      <c r="C111" t="n">
+      <c r="B118" t="n">
+        <v>0.4461279461279462</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.9772727272727273</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="n">
+        <v>1</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.4461279461279462</v>
+      </c>
+      <c r="C119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1886,7 +3266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1910,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1921,7 +3301,7 @@
         <v>0.007575757575757576</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1929,10 +3309,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1940,32 +3320,32 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009259259259259259</v>
+        <v>0.01851851851851852</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.03787878787878788</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009259259259259259</v>
+        <v>0.01851851851851852</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.03787878787878788</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C7" t="n">
         <v>0.03703703703703703</v>
@@ -1973,10 +3353,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.05303030303030303</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C8" t="n">
         <v>0.03703703703703703</v>
@@ -1984,54 +3364,54 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.05303030303030303</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.09848484848484848</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.09848484848484848</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C13" t="n">
         <v>0.1111111111111111</v>
@@ -2039,10 +3419,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C14" t="n">
         <v>0.1111111111111111</v>
@@ -2050,189 +3430,189 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1296296296296296</v>
+        <v>0.1203703703703704</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.143939393939394</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1296296296296296</v>
+        <v>0.1203703703703704</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.143939393939394</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1296296296296296</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1296296296296296</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1759259259259259</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1759259259259259</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1893939393939394</v>
+        <v>0.1742424242424243</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1893939393939394</v>
+        <v>0.1742424242424243</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2407407407407407</v>
+        <v>0.1574074074074074</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.196969696969697</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2407407407407407</v>
+        <v>0.1574074074074074</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.196969696969697</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C25" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.2045454545454546</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C26" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.2045454545454546</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2685185185185185</v>
+        <v>0.1759259259259259</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.2348484848484849</v>
+        <v>0.2651515151515151</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2685185185185185</v>
+        <v>0.1759259259259259</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.2348484848484849</v>
+        <v>0.2651515151515151</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.2803030303030303</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.2803030303030303</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.212962962962963</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2240,10 +3620,10 @@
         <v>0.2878787878787879</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.212962962962963</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2251,10 +3631,10 @@
         <v>0.2878787878787879</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2262,10 +3642,10 @@
         <v>0.2954545454545455</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2273,32 +3653,32 @@
         <v>0.2954545454545455</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.303030303030303</v>
+        <v>0.3257575757575757</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.303030303030303</v>
+        <v>0.3257575757575757</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2306,10 +3686,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2317,252 +3697,252 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.2685185185185185</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.3560606060606061</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.2685185185185185</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.3560606060606061</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3981481481481481</v>
+        <v>0.287037037037037</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3484848484848485</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3981481481481481</v>
+        <v>0.287037037037037</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3484848484848485</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3055555555555556</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3787878787878788</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3055555555555556</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3787878787878788</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4259259259259259</v>
+        <v>0.3148148148148148</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3863636363636364</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4259259259259259</v>
+        <v>0.3148148148148148</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3863636363636364</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3425925925925926</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.4393939393939394</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3425925925925926</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.4393939393939394</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.3703703703703703</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.4621212121212121</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.3703703703703703</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.4621212121212121</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4907407407407408</v>
+        <v>0.3796296296296297</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.4621212121212121</v>
+        <v>0.4696969696969697</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4907407407407408</v>
+        <v>0.3796296296296297</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.4621212121212121</v>
+        <v>0.4696969696969697</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5370370370370371</v>
+        <v>0.3981481481481481</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.4924242424242424</v>
+        <v>0.5</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5370370370370371</v>
+        <v>0.3981481481481481</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4924242424242424</v>
+        <v>0.5</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4074074074074074</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.5</v>
+        <v>0.5075757575757576</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4074074074074074</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.5</v>
+        <v>0.5075757575757576</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5648148148148148</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.5227272727272727</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5648148148148148</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.5227272727272727</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6018518518518519</v>
+        <v>0.4259259259259259</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2570,10 +3950,10 @@
         <v>0.5303030303030303</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6018518518518519</v>
+        <v>0.4259259259259259</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2581,548 +3961,636 @@
         <v>0.5303030303030303</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.4351851851851852</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.5606060606060606</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.4351851851851852</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.5606060606060606</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6203703703703703</v>
+        <v>0.4537037037037037</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6203703703703703</v>
+        <v>0.4537037037037037</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6296296296296297</v>
+        <v>0.462962962962963</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.5984848484848485</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6296296296296297</v>
+        <v>0.462962962962963</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5984848484848485</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6481481481481481</v>
+        <v>0.4814814814814815</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.6136363636363636</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6481481481481481</v>
+        <v>0.4814814814814815</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.6136363636363636</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6759259259259259</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.6287878787878788</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6759259259259259</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.6287878787878788</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6851851851851852</v>
+        <v>0.5277777777777778</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.6439393939393939</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6851851851851852</v>
+        <v>0.5277777777777778</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.6439393939393939</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7129629629629629</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.6515151515151515</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7129629629629629</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.6515151515151515</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7314814814814815</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7314814814814815</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.5925925925925926</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.7121212121212122</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.5925925925925926</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.7121212121212122</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7592592592592593</v>
+        <v>0.6018518518518519</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7592592592592593</v>
+        <v>0.6018518518518519</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6388888888888888</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.7651515151515151</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6388888888888888</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.7651515151515151</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7870370370370371</v>
+        <v>0.6574074074074074</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.7803030303030303</v>
+        <v>0.7196969696969697</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7870370370370371</v>
+        <v>0.6574074074074074</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.7803030303030303</v>
+        <v>0.7196969696969697</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8055555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.7651515151515151</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8055555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.7651515151515151</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8240740740740741</v>
+        <v>0.7037037037037037</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.7803030303030303</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8240740740740741</v>
+        <v>0.7037037037037037</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.7803030303030303</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8425925925925926</v>
+        <v>0.7129629629629629</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.8560606060606061</v>
+        <v>0.803030303030303</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8425925925925926</v>
+        <v>0.7129629629629629</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.8560606060606061</v>
+        <v>0.803030303030303</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8796296296296297</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8106060606060606</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8796296296296297</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8106060606060606</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9074074074074074</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.8712121212121212</v>
+        <v>0.8257575757575758</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9074074074074074</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.8712121212121212</v>
+        <v>0.8257575757575758</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.8939393939393939</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.8939393939393939</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9351851851851852</v>
+        <v>0.8055555555555556</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.9242424242424242</v>
+        <v>0.8560606060606061</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9351851851851852</v>
+        <v>0.8055555555555556</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.9242424242424242</v>
+        <v>0.8560606060606061</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.8148148148148148</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.8148148148148148</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9537037037037037</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.946969696969697</v>
+        <v>0.8712121212121212</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9537037037037037</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.946969696969697</v>
+        <v>0.8712121212121212</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.8425925925925926</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.8425925925925926</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9814814814814815</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9814814814814815</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5255331088664422</v>
+        <v>0.4461279461279461</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
+        <v>0.9242424242424242</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.4461279461279461</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="n">
+        <v>0.9242424242424242</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.4461279461279461</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.9351851851851852</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="n">
+        <v>0.946969696969697</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.4461279461279461</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.9351851851851852</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="n">
+        <v>0.946969696969697</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.4461279461279461</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="n">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.4461279461279461</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="n">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.4461279461279461</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9722222222222222</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="n">
+        <v>0.9621212121212122</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.4461279461279461</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.9722222222222222</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="n">
+        <v>0.9621212121212122</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.4461279461279461</v>
+      </c>
+      <c r="C119" t="n">
         <v>1</v>
       </c>
-      <c r="B112" t="n">
-        <v>0.5255331088664422</v>
-      </c>
-      <c r="C112" t="n">
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="n">
+        <v>1</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.4461279461279461</v>
+      </c>
+      <c r="C120" t="n">
         <v>1</v>
       </c>
     </row>
